--- a/biology/Zoologie/Conophis_lineatus/Conophis_lineatus.xlsx
+++ b/biology/Zoologie/Conophis_lineatus/Conophis_lineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conophis lineatus est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conophis lineatus est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Veracruz, au Tabasco, au Chiapas et au Yucatán, au Belize, au Guatemala, au Salvador, au Honduras, au Nicaragua et au Costa Rica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Mexique, au Veracruz, au Tabasco, au Chiapas et au Yucatán, au Belize, au Guatemala, au Salvador, au Honduras, au Nicaragua et au Costa Rica.
 Sa présence est incertaine  et au Panamá et a été réfutée pour la Colombie.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (4 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (4 septembre 2014) :
 Conophis lineatus concolor Cope, 1867
 Conophis lineatus lineatus (Duméril, Bibron &amp; Duméril, 1854)</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conophis pulcher[3] et la sous-espèce Conophis lineatus dunni[4] ont été placées en synonymie avec Conophis lineatus.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conophis pulcher et la sous-espèce Conophis lineatus dunni ont été placées en synonymie avec Conophis lineatus.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique lineatus vient du latin lineatus, rayé, en référence à l'aspect de ce serpent[1]. L'ancienne sous-espèce Conophis lineatus dunni est nommée en l'honneur d'Emmett Reid Dunn[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique lineatus vient du latin lineatus, rayé, en référence à l'aspect de ce serpent. L'ancienne sous-espèce Conophis lineatus dunni est nommée en l'honneur d'Emmett Reid Dunn.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1867 "1866" : Fifth contribution to the herpetology of tropical America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 18, p. 317-323 (texte intégral).
 Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Première partie, p. 1-780 (texte intégral).</t>
